--- a/tests/test_cook_disordered/sorted/info/info.xlsx
+++ b/tests/test_cook_disordered/sorted/info/info.xlsx
@@ -366,260 +366,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="C1" s="1">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="D1" s="1">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="E1" s="1">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="F1" s="1">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="G1" s="1">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-3888.151185411306</v>
+        <v>-80969.84687153777</v>
       </c>
       <c r="C2">
-        <v>-3902.90700874752</v>
+        <v>-93493.83739772075</v>
       </c>
       <c r="D2">
-        <v>-3916.690647408591</v>
+        <v>-106017.4941373419</v>
       </c>
       <c r="E2">
-        <v>-3931.428871152202</v>
+        <v>-118541.4701680195</v>
       </c>
       <c r="F2">
-        <v>-3945.124747239061</v>
+        <v>-131064.6760979689</v>
       </c>
       <c r="G2">
-        <v>-3960.062071978967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-143588.6046605605</v>
+      </c>
+      <c r="H2">
+        <v>-156111.7828991151</v>
+      </c>
+      <c r="I2">
+        <v>-168635.702242217</v>
+      </c>
+      <c r="J2">
+        <v>-181158.911667741</v>
+      </c>
+      <c r="K2">
+        <v>-193682.8827758789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-3887.78508517914</v>
+        <v>-80969.5736773855</v>
       </c>
       <c r="C3">
-        <v>-3902.867700336106</v>
+        <v>-93493.80312253101</v>
       </c>
       <c r="D3">
-        <v>-3916.669796082896</v>
+        <v>-106017.1405710956</v>
       </c>
       <c r="E3">
-        <v>-3931.376105737674</v>
+        <v>-118541.4667535348</v>
       </c>
       <c r="F3">
-        <v>-3945.098823006535</v>
+        <v>-131064.6757153768</v>
       </c>
       <c r="G3">
-        <v>-3959.78299962796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-143588.5284997006</v>
+      </c>
+      <c r="H3">
+        <v>-156111.7098395368</v>
+      </c>
+      <c r="I3">
+        <v>-168635.6659776029</v>
+      </c>
+      <c r="J3">
+        <v>-181158.8575578999</v>
+      </c>
+      <c r="K3">
+        <v>-193682.7602185174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-3887.748424206278</v>
+        <v>-80969.33619137455</v>
       </c>
       <c r="C4">
-        <v>-3902.627179969234</v>
+        <v>-93493.46436009509</v>
       </c>
       <c r="D4">
-        <v>-3916.668804186868</v>
+        <v>-106016.8796549928</v>
       </c>
       <c r="E4">
-        <v>-3931.30939183859</v>
+        <v>-118540.9605798492</v>
       </c>
       <c r="F4">
-        <v>-3945.075971693164</v>
+        <v>-131064.6162416273</v>
       </c>
       <c r="G4">
-        <v>-3959.762726157408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-143588.4822468751</v>
+      </c>
+      <c r="H4">
+        <v>-156111.6926786762</v>
+      </c>
+      <c r="I4">
+        <v>-168635.6012697432</v>
+      </c>
+      <c r="J4">
+        <v>-181158.8114514717</v>
+      </c>
+      <c r="K4">
+        <v>-193682.6981798227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>-3887.684122513135</v>
-      </c>
-      <c r="C5">
-        <v>-3902.328057242401</v>
-      </c>
-      <c r="D5">
-        <v>-3916.642587466882</v>
-      </c>
       <c r="E5">
-        <v>-3931.302800433098</v>
+        <v>-118540.9267120139</v>
       </c>
       <c r="F5">
-        <v>-3945.052542568299</v>
+        <v>-131064.5581357941</v>
       </c>
       <c r="G5">
-        <v>-3959.703831907413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>-143588.4196076251</v>
+      </c>
+      <c r="H5">
+        <v>-156111.674794537</v>
+      </c>
+      <c r="I5">
+        <v>-168635.5916818113</v>
+      </c>
+      <c r="J5">
+        <v>-181158.765496883</v>
+      </c>
+      <c r="K5">
+        <v>-193682.5105034375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>-3887.608561550728</v>
-      </c>
-      <c r="C6">
-        <v>-3902.325406606485</v>
-      </c>
-      <c r="D6">
-        <v>-3916.605351077669</v>
-      </c>
       <c r="E6">
-        <v>-3931.288692243039</v>
+        <v>-118540.7537158994</v>
       </c>
       <c r="F6">
-        <v>-3945.051935205455</v>
+        <v>-131064.5323355906</v>
       </c>
       <c r="G6">
-        <v>-3959.697407721956</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-143588.3298859709</v>
+      </c>
+      <c r="H6">
+        <v>-156111.6516809136</v>
+      </c>
+      <c r="I6">
+        <v>-168635.5409325764</v>
+      </c>
+      <c r="J6">
+        <v>-181158.6786014034</v>
+      </c>
+      <c r="K6">
+        <v>-193682.4433307705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>-3887.608345443424</v>
-      </c>
-      <c r="C7">
-        <v>-3902.281686753906</v>
-      </c>
-      <c r="D7">
-        <v>-3916.567388023576</v>
-      </c>
       <c r="E7">
-        <v>-3931.262694196038</v>
+        <v>-118540.4240695499</v>
       </c>
       <c r="F7">
-        <v>-3945.045278825214</v>
+        <v>-131064.4525090849</v>
       </c>
       <c r="G7">
-        <v>-3959.687840680598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-143588.0855260918</v>
+      </c>
+      <c r="H7">
+        <v>-156111.633815006</v>
+      </c>
+      <c r="I7">
+        <v>-168635.5320034322</v>
+      </c>
+      <c r="J7">
+        <v>-181158.6398453148</v>
+      </c>
+      <c r="K7">
+        <v>-193682.3763066777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>-3887.587181675697</v>
-      </c>
-      <c r="C8">
-        <v>-3902.28066919384</v>
-      </c>
-      <c r="D8">
-        <v>-3916.53929620064</v>
-      </c>
-      <c r="E8">
-        <v>-3931.257206834572</v>
-      </c>
       <c r="F8">
-        <v>-3945.035898851903</v>
+        <v>-131064.3949771399</v>
       </c>
       <c r="G8">
-        <v>-3959.686872209546</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-143587.954335918</v>
+      </c>
+      <c r="H8">
+        <v>-156111.5965740473</v>
+      </c>
+      <c r="I8">
+        <v>-168635.446093549</v>
+      </c>
+      <c r="J8">
+        <v>-181158.6100194587</v>
+      </c>
+      <c r="K8">
+        <v>-193682.3526444728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>-3887.576773869668</v>
-      </c>
-      <c r="C9">
-        <v>-3902.255483786092</v>
-      </c>
-      <c r="D9">
-        <v>-3916.532877274436</v>
-      </c>
-      <c r="E9">
-        <v>-3931.190218440142</v>
-      </c>
       <c r="F9">
-        <v>-3945.033866263982</v>
+        <v>-131064.3552672921</v>
       </c>
       <c r="G9">
-        <v>-3959.654060887492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-143587.8836826427</v>
+      </c>
+      <c r="H9">
+        <v>-156111.5471674222</v>
+      </c>
+      <c r="I9">
+        <v>-168635.4434099621</v>
+      </c>
+      <c r="J9">
+        <v>-181158.5969852048</v>
+      </c>
+      <c r="K9">
+        <v>-193682.1990078988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>-3887.568699486577</v>
-      </c>
-      <c r="C10">
-        <v>-3902.255243864526</v>
-      </c>
-      <c r="D10">
-        <v>-3916.494456414597</v>
-      </c>
-      <c r="E10">
-        <v>-3931.167580926197</v>
-      </c>
       <c r="F10">
-        <v>-3945.030073788811</v>
+        <v>-131064.3228326806</v>
       </c>
       <c r="G10">
-        <v>-3959.650394927579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-143587.5931834095</v>
+      </c>
+      <c r="H10">
+        <v>-156111.5267504471</v>
+      </c>
+      <c r="I10">
+        <v>-168635.2006177309</v>
+      </c>
+      <c r="J10">
+        <v>-181158.5468746211</v>
+      </c>
+      <c r="K10">
+        <v>-193681.8647084023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>-3887.526287415197</v>
-      </c>
-      <c r="C11">
-        <v>-3902.224519693984</v>
-      </c>
-      <c r="D11">
-        <v>-3916.457385358091</v>
-      </c>
-      <c r="E11">
-        <v>-3931.157567339083</v>
-      </c>
       <c r="F11">
-        <v>-3945.017411440429</v>
-      </c>
-      <c r="G11">
-        <v>-3959.650082528759</v>
+        <v>-131064.2692066579</v>
+      </c>
+      <c r="H11">
+        <v>-156111.481418727</v>
+      </c>
+      <c r="I11">
+        <v>-168635.0686158415</v>
+      </c>
+      <c r="J11">
+        <v>-181158.5397368025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>-131064.1568780564</v>
+      </c>
+      <c r="H12">
+        <v>-156111.41724285</v>
+      </c>
+      <c r="I12">
+        <v>-168635.0476916463</v>
+      </c>
+      <c r="J12">
+        <v>-181158.5337530187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>-156111.4149377735</v>
+      </c>
+      <c r="I13">
+        <v>-168635.0081864281</v>
+      </c>
+      <c r="J13">
+        <v>-181158.4729159787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>-156111.4049718755</v>
+      </c>
+      <c r="I14">
+        <v>-168635.0033349101</v>
+      </c>
+      <c r="J14">
+        <v>-181158.4540870602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>-156111.330293764</v>
+      </c>
+      <c r="I15">
+        <v>-168634.9929510452</v>
+      </c>
+      <c r="J15">
+        <v>-181158.4203433088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>-156111.3195624097</v>
+      </c>
+      <c r="I16">
+        <v>-168634.7828862201</v>
+      </c>
+      <c r="J16">
+        <v>-181158.3319914759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>-156111.3110610285</v>
+      </c>
+      <c r="I17">
+        <v>-168634.7142180153</v>
+      </c>
+      <c r="J17">
+        <v>-181158.3289062489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>-156111.2985486889</v>
+      </c>
+      <c r="I18">
+        <v>-168634.6195476986</v>
+      </c>
+      <c r="J18">
+        <v>-181158.3130621473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>-156111.2687737182</v>
+      </c>
+      <c r="J19">
+        <v>-181158.2956076759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>-156111.0996416205</v>
+      </c>
+      <c r="J20">
+        <v>-181158.2882410094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <v>-181158.2863370288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>-181158.2494141712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>-181158.2203464244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <v>-181158.1561716358</v>
       </c>
     </row>
   </sheetData>
